--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Sost-Lrp6.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Sost-Lrp6.xlsx
@@ -543,10 +543,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.008070666666666667</v>
+        <v>0.1212753333333333</v>
       </c>
       <c r="H2">
-        <v>0.024212</v>
+        <v>0.363826</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.403031</v>
+        <v>12.80871533333333</v>
       </c>
       <c r="N2">
-        <v>28.209093</v>
+        <v>38.426146</v>
       </c>
       <c r="O2">
-        <v>0.1079186507462474</v>
+        <v>0.1716721220213608</v>
       </c>
       <c r="P2">
-        <v>0.1079186507462474</v>
+        <v>0.1716721220213608</v>
       </c>
       <c r="Q2">
-        <v>0.07588872885733335</v>
+        <v>1.553381221621778</v>
       </c>
       <c r="R2">
-        <v>0.682998559716</v>
+        <v>13.980430994596</v>
       </c>
       <c r="S2">
-        <v>0.1079186507462474</v>
+        <v>0.1716721220213608</v>
       </c>
       <c r="T2">
-        <v>0.1079186507462474</v>
+        <v>0.1716721220213608</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,10 +605,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.008070666666666667</v>
+        <v>0.1212753333333333</v>
       </c>
       <c r="H3">
-        <v>0.024212</v>
+        <v>0.363826</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -626,25 +626,25 @@
         <v>21.85073566666667</v>
       </c>
       <c r="N3">
-        <v>65.55220700000001</v>
+        <v>65.552207</v>
       </c>
       <c r="O3">
-        <v>0.2507810418746436</v>
+        <v>0.2928601395225403</v>
       </c>
       <c r="P3">
-        <v>0.2507810418746436</v>
+        <v>0.2928601395225403</v>
       </c>
       <c r="Q3">
-        <v>0.1763500039871111</v>
+        <v>2.649955251553555</v>
       </c>
       <c r="R3">
-        <v>1.587150035884</v>
+        <v>23.849597263982</v>
       </c>
       <c r="S3">
-        <v>0.2507810418746436</v>
+        <v>0.2928601395225403</v>
       </c>
       <c r="T3">
-        <v>0.2507810418746436</v>
+        <v>0.2928601395225403</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,10 +667,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.008070666666666667</v>
+        <v>0.1212753333333333</v>
       </c>
       <c r="H4">
-        <v>0.024212</v>
+        <v>0.363826</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.75061866666667</v>
+        <v>10.846871</v>
       </c>
       <c r="N4">
-        <v>44.251856</v>
+        <v>32.540613</v>
       </c>
       <c r="O4">
-        <v>0.1692929507707757</v>
+        <v>0.1453779956383313</v>
       </c>
       <c r="P4">
-        <v>0.1692929507707757</v>
+        <v>0.1453779956383313</v>
       </c>
       <c r="Q4">
-        <v>0.1190473263857778</v>
+        <v>1.315457896148667</v>
       </c>
       <c r="R4">
-        <v>1.071425937472</v>
+        <v>11.839121065338</v>
       </c>
       <c r="S4">
-        <v>0.1692929507707757</v>
+        <v>0.1453779956383313</v>
       </c>
       <c r="T4">
-        <v>0.1692929507707757</v>
+        <v>0.1453779956383313</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.008070666666666667</v>
+        <v>0.1212753333333333</v>
       </c>
       <c r="H5">
-        <v>0.024212</v>
+        <v>0.363826</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.921556</v>
+        <v>7.389532</v>
       </c>
       <c r="N5">
-        <v>44.764668</v>
+        <v>22.168596</v>
       </c>
       <c r="O5">
-        <v>0.171254799708155</v>
+        <v>0.09904011496636306</v>
       </c>
       <c r="P5">
-        <v>0.171254799708155</v>
+        <v>0.09904011496636304</v>
       </c>
       <c r="Q5">
-        <v>0.120426904624</v>
+        <v>0.8961679564773333</v>
       </c>
       <c r="R5">
-        <v>1.083842141616</v>
+        <v>8.065511608295999</v>
       </c>
       <c r="S5">
-        <v>0.171254799708155</v>
+        <v>0.09904011496636306</v>
       </c>
       <c r="T5">
-        <v>0.171254799708155</v>
+        <v>0.09904011496636304</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.008070666666666667</v>
+        <v>0.1212753333333333</v>
       </c>
       <c r="H6">
-        <v>0.024212</v>
+        <v>0.363826</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.960233</v>
+        <v>7.190038666666666</v>
       </c>
       <c r="N6">
-        <v>20.880699</v>
+        <v>21.570116</v>
       </c>
       <c r="O6">
-        <v>0.07988264148437943</v>
+        <v>0.09636635393950015</v>
       </c>
       <c r="P6">
-        <v>0.07988264148437943</v>
+        <v>0.09636635393950013</v>
       </c>
       <c r="Q6">
-        <v>0.05617372046533333</v>
+        <v>0.8719743359795555</v>
       </c>
       <c r="R6">
-        <v>0.505563484188</v>
+        <v>7.847769023815999</v>
       </c>
       <c r="S6">
-        <v>0.07988264148437943</v>
+        <v>0.09636635393950015</v>
       </c>
       <c r="T6">
-        <v>0.07988264148437943</v>
+        <v>0.09636635393950013</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.008070666666666667</v>
+        <v>0.1212753333333333</v>
       </c>
       <c r="H7">
-        <v>0.024212</v>
+        <v>0.363826</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>19.24455733333333</v>
+        <v>14.525612</v>
       </c>
       <c r="N7">
-        <v>57.733672</v>
+        <v>43.576836</v>
       </c>
       <c r="O7">
-        <v>0.2208699154157988</v>
+        <v>0.1946832739119044</v>
       </c>
       <c r="P7">
-        <v>0.2208699154157988</v>
+        <v>0.1946832739119044</v>
       </c>
       <c r="Q7">
-        <v>0.1553164073848889</v>
+        <v>1.761598437170667</v>
       </c>
       <c r="R7">
-        <v>1.397847666464</v>
+        <v>15.854385934536</v>
       </c>
       <c r="S7">
-        <v>0.2208699154157988</v>
+        <v>0.1946832739119044</v>
       </c>
       <c r="T7">
-        <v>0.2208699154157988</v>
+        <v>0.1946832739119044</v>
       </c>
     </row>
   </sheetData>
